--- a/PDC_Sim_Input_For_Optim.xlsx
+++ b/PDC_Sim_Input_For_Optim.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>45807</v>
@@ -601,25 +601,25 @@
         <v>22673</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6812</v>
       </c>
       <c r="G2" t="n">
-        <v>431.96</v>
+        <v>22312.86</v>
       </c>
       <c r="H2" t="n">
-        <v>22241.04</v>
+        <v>-6451.860000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>22241.04</v>
+        <v>6451.860000000001</v>
       </c>
       <c r="J2" t="n">
         <v>1133.65</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9809482644555199</v>
+        <v>-0.2845613725576677</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9809482644555199</v>
+        <v>0.2845613725576677</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>437.96</v>
+        <v>22312.86</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>45808</v>
@@ -693,25 +693,25 @@
         <v>54018.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1609</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>18969.63</v>
       </c>
       <c r="H3" t="n">
-        <v>54018.4</v>
+        <v>33439.77</v>
       </c>
       <c r="I3" t="n">
-        <v>54018.4</v>
+        <v>33439.77</v>
       </c>
       <c r="J3" t="n">
         <v>2700.92</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.6190440664662412</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.6190440664662412</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18969.63</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>45807</v>
@@ -785,25 +785,25 @@
         <v>283</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H4" t="n">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="I4" t="n">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="J4" t="n">
         <v>14.15</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.4593639575971731</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.4593639575971731</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>45808</v>
@@ -880,22 +880,22 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="H5" t="n">
-        <v>3742.4</v>
+        <v>3607.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3742.4</v>
+        <v>3607.4</v>
       </c>
       <c r="J5" t="n">
         <v>187.12</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.9639268918341172</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.9639268918341172</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="O5" t="n">
         <v>0.8</v>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>45807</v>
@@ -969,25 +969,25 @@
         <v>19735</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1965.2</v>
       </c>
       <c r="H6" t="n">
-        <v>19735</v>
+        <v>17049.8</v>
       </c>
       <c r="I6" t="n">
-        <v>19735</v>
+        <v>17049.8</v>
       </c>
       <c r="J6" t="n">
         <v>986.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.8639371674689638</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.8639371674689638</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1965.2</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>45808</v>
@@ -1064,22 +1064,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4507.6</v>
       </c>
       <c r="H7" t="n">
-        <v>26088.8</v>
+        <v>21581.2</v>
       </c>
       <c r="I7" t="n">
-        <v>26088.8</v>
+        <v>21581.2</v>
       </c>
       <c r="J7" t="n">
         <v>1304.44</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.8272208763914017</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.8272208763914017</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>4507.6</v>
       </c>
       <c r="O7" t="n">
         <v>0.8</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>45808</v>
@@ -1153,25 +1153,25 @@
         <v>53981</v>
       </c>
       <c r="F8" t="n">
-        <v>274</v>
+        <v>14119</v>
       </c>
       <c r="G8" t="n">
-        <v>694</v>
+        <v>18060.93</v>
       </c>
       <c r="H8" t="n">
-        <v>53013</v>
+        <v>21801.07</v>
       </c>
       <c r="I8" t="n">
-        <v>53013</v>
+        <v>21801.07</v>
       </c>
       <c r="J8" t="n">
         <v>2699.05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.982067764583835</v>
+        <v>0.4038656193845983</v>
       </c>
       <c r="L8" t="n">
-        <v>0.982067764583835</v>
+        <v>0.4038656193845983</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>694</v>
+        <v>18110.49</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>45808</v>
@@ -1245,25 +1245,25 @@
         <v>14577</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>8574.24</v>
       </c>
       <c r="H9" t="n">
-        <v>14577</v>
+        <v>5187.76</v>
       </c>
       <c r="I9" t="n">
-        <v>14577</v>
+        <v>5187.76</v>
       </c>
       <c r="J9" t="n">
         <v>728.85</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.3558866707827399</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.3558866707827399</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>8574.24</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>45808</v>
@@ -1340,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2855.99</v>
       </c>
       <c r="H10" t="n">
-        <v>9095</v>
+        <v>6239.01</v>
       </c>
       <c r="I10" t="n">
-        <v>9095</v>
+        <v>6239.01</v>
       </c>
       <c r="J10" t="n">
         <v>454.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.6859824079164376</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0.6859824079164376</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2855.99</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>

--- a/PDC_Sim_Input_For_Optim.xlsx
+++ b/PDC_Sim_Input_For_Optim.xlsx
@@ -604,22 +604,22 @@
         <v>6812</v>
       </c>
       <c r="G2" t="n">
-        <v>22312.86</v>
+        <v>33787.73</v>
       </c>
       <c r="H2" t="n">
-        <v>-6451.860000000001</v>
+        <v>-17926.73</v>
       </c>
       <c r="I2" t="n">
-        <v>6451.860000000001</v>
+        <v>17926.73</v>
       </c>
       <c r="J2" t="n">
         <v>1133.65</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.2845613725576677</v>
+        <v>-0.7906642261720991</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2845613725576677</v>
+        <v>0.7906642261720991</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>22312.86</v>
+        <v>33787.73</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -696,22 +696,22 @@
         <v>1609</v>
       </c>
       <c r="G3" t="n">
-        <v>18969.63</v>
+        <v>32532.8</v>
       </c>
       <c r="H3" t="n">
-        <v>33439.77</v>
+        <v>19876.6</v>
       </c>
       <c r="I3" t="n">
-        <v>33439.77</v>
+        <v>19876.6</v>
       </c>
       <c r="J3" t="n">
         <v>2700.92</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6190440664662412</v>
+        <v>0.3679598062882277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6190440664662412</v>
+        <v>0.3679598062882277</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>18969.63</v>
+        <v>32532.8</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
@@ -788,22 +788,22 @@
         <v>96</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>276.25</v>
       </c>
       <c r="H4" t="n">
-        <v>130</v>
+        <v>-89.25</v>
       </c>
       <c r="I4" t="n">
-        <v>130</v>
+        <v>89.25</v>
       </c>
       <c r="J4" t="n">
         <v>14.15</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4593639575971731</v>
+        <v>-0.3153710247349824</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4593639575971731</v>
+        <v>0.3153710247349824</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>57</v>
+        <v>276.25</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -880,22 +880,22 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>135</v>
+        <v>416.92</v>
       </c>
       <c r="H5" t="n">
-        <v>3607.4</v>
+        <v>3325.48</v>
       </c>
       <c r="I5" t="n">
-        <v>3607.4</v>
+        <v>3325.48</v>
       </c>
       <c r="J5" t="n">
         <v>187.12</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9639268918341172</v>
+        <v>0.8885955536554083</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9639268918341172</v>
+        <v>0.8885955536554083</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>135</v>
+        <v>416.92</v>
       </c>
       <c r="O5" t="n">
         <v>0.8</v>
@@ -972,22 +972,22 @@
         <v>720</v>
       </c>
       <c r="G6" t="n">
-        <v>1965.2</v>
+        <v>16870.2</v>
       </c>
       <c r="H6" t="n">
-        <v>17049.8</v>
+        <v>2144.799999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>17049.8</v>
+        <v>2144.799999999999</v>
       </c>
       <c r="J6" t="n">
         <v>986.75</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8639371674689638</v>
+        <v>0.1086800101342792</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8639371674689638</v>
+        <v>0.1086800101342792</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1965.2</v>
+        <v>16870.2</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -1064,22 +1064,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4507.6</v>
+        <v>11197.2</v>
       </c>
       <c r="H7" t="n">
-        <v>21581.2</v>
+        <v>14891.6</v>
       </c>
       <c r="I7" t="n">
-        <v>21581.2</v>
+        <v>14891.6</v>
       </c>
       <c r="J7" t="n">
         <v>1304.44</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8272208763914017</v>
+        <v>0.5708043298273588</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8272208763914017</v>
+        <v>0.5708043298273588</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4507.6</v>
+        <v>11197.2</v>
       </c>
       <c r="O7" t="n">
         <v>0.8</v>
@@ -1156,22 +1156,22 @@
         <v>14119</v>
       </c>
       <c r="G8" t="n">
-        <v>18060.93</v>
+        <v>21068.45</v>
       </c>
       <c r="H8" t="n">
-        <v>21801.07</v>
+        <v>18793.55</v>
       </c>
       <c r="I8" t="n">
-        <v>21801.07</v>
+        <v>18793.55</v>
       </c>
       <c r="J8" t="n">
         <v>2699.05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4038656193845983</v>
+        <v>0.3481512013486227</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4038656193845983</v>
+        <v>0.3481512013486227</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>18110.49</v>
+        <v>21068.45</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1248,22 +1248,22 @@
         <v>815</v>
       </c>
       <c r="G9" t="n">
-        <v>8574.24</v>
+        <v>13175.24</v>
       </c>
       <c r="H9" t="n">
-        <v>5187.76</v>
+        <v>586.7600000000002</v>
       </c>
       <c r="I9" t="n">
-        <v>5187.76</v>
+        <v>586.7600000000002</v>
       </c>
       <c r="J9" t="n">
         <v>728.85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3558866707827399</v>
+        <v>0.0402524524936544</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3558866707827399</v>
+        <v>0.0402524524936544</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>8574.24</v>
+        <v>13175.24</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -1340,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2855.99</v>
+        <v>7529.92</v>
       </c>
       <c r="H10" t="n">
-        <v>6239.01</v>
+        <v>1565.08</v>
       </c>
       <c r="I10" t="n">
-        <v>6239.01</v>
+        <v>1565.08</v>
       </c>
       <c r="J10" t="n">
         <v>454.75</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6859824079164376</v>
+        <v>0.1720813633864761</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6859824079164376</v>
+        <v>0.1720813633864761</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2855.99</v>
+        <v>7529.92</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>

--- a/PDC_Sim_Input_For_Optim.xlsx
+++ b/PDC_Sim_Input_For_Optim.xlsx
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>33787.73</v>
+        <v>33742</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -696,22 +696,22 @@
         <v>1609</v>
       </c>
       <c r="G3" t="n">
-        <v>32532.8</v>
+        <v>32949.8</v>
       </c>
       <c r="H3" t="n">
-        <v>19876.6</v>
+        <v>19459.6</v>
       </c>
       <c r="I3" t="n">
-        <v>19876.6</v>
+        <v>19459.6</v>
       </c>
       <c r="J3" t="n">
         <v>2700.92</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3679598062882277</v>
+        <v>0.3602402144454482</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3679598062882277</v>
+        <v>0.3602402144454482</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>32532.8</v>
+        <v>32921</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>276.25</v>
+        <v>276</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>416.92</v>
+        <v>416</v>
       </c>
       <c r="O5" t="n">
         <v>0.8</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>16870.2</v>
+        <v>16870</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>11197.2</v>
+        <v>11196</v>
       </c>
       <c r="O7" t="n">
         <v>0.8</v>
@@ -1156,22 +1156,22 @@
         <v>14119</v>
       </c>
       <c r="G8" t="n">
-        <v>21068.45</v>
+        <v>29560.61</v>
       </c>
       <c r="H8" t="n">
-        <v>18793.55</v>
+        <v>10301.39</v>
       </c>
       <c r="I8" t="n">
-        <v>18793.55</v>
+        <v>10301.39</v>
       </c>
       <c r="J8" t="n">
         <v>2699.05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3481512013486227</v>
+        <v>0.1908336266464126</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3481512013486227</v>
+        <v>0.1908336266464126</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>21068.45</v>
+        <v>29528</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1248,22 +1248,22 @@
         <v>815</v>
       </c>
       <c r="G9" t="n">
-        <v>13175.24</v>
+        <v>14483.88</v>
       </c>
       <c r="H9" t="n">
-        <v>586.7600000000002</v>
+        <v>-721.8799999999992</v>
       </c>
       <c r="I9" t="n">
-        <v>586.7600000000002</v>
+        <v>721.8799999999992</v>
       </c>
       <c r="J9" t="n">
         <v>728.85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0402524524936544</v>
+        <v>-0.04952184948892085</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0402524524936544</v>
+        <v>0.04952184948892085</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>13175.24</v>
+        <v>14465</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7529.92</v>
+        <v>7518</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>

--- a/PDC_Sim_Input_For_Optim.xlsx
+++ b/PDC_Sim_Input_For_Optim.xlsx
@@ -592,34 +592,34 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45807</v>
+        <v>45813</v>
       </c>
       <c r="E2" t="n">
-        <v>22673</v>
+        <v>113847</v>
       </c>
       <c r="F2" t="n">
-        <v>6812</v>
+        <v>32851</v>
       </c>
       <c r="G2" t="n">
-        <v>33787.73</v>
+        <v>34669.94</v>
       </c>
       <c r="H2" t="n">
-        <v>-17926.73</v>
+        <v>46326.06</v>
       </c>
       <c r="I2" t="n">
-        <v>17926.73</v>
+        <v>46326.06</v>
       </c>
       <c r="J2" t="n">
-        <v>1133.65</v>
+        <v>5692.35</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7906642261720991</v>
+        <v>0.4069150702258294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7906642261720991</v>
+        <v>0.4069150702258294</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>33742</v>
+        <v>34634</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -684,34 +684,34 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E3" t="n">
-        <v>54018.4</v>
+        <v>37152.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1609</v>
+        <v>506</v>
       </c>
       <c r="G3" t="n">
-        <v>32949.8</v>
+        <v>22396.14</v>
       </c>
       <c r="H3" t="n">
-        <v>19459.6</v>
+        <v>14250.66</v>
       </c>
       <c r="I3" t="n">
-        <v>19459.6</v>
+        <v>14250.66</v>
       </c>
       <c r="J3" t="n">
-        <v>2700.92</v>
+        <v>1857.64</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3602402144454482</v>
+        <v>0.3835689369307294</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3602402144454482</v>
+        <v>0.3835689369307294</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>32921</v>
+        <v>22371</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
@@ -776,34 +776,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45807</v>
+        <v>45813</v>
       </c>
       <c r="E4" t="n">
-        <v>283</v>
+        <v>1331</v>
       </c>
       <c r="F4" t="n">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="G4" t="n">
-        <v>276.25</v>
+        <v>280</v>
       </c>
       <c r="H4" t="n">
-        <v>-89.25</v>
+        <v>914</v>
       </c>
       <c r="I4" t="n">
-        <v>89.25</v>
+        <v>914</v>
       </c>
       <c r="J4" t="n">
-        <v>14.15</v>
+        <v>66.55</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.3153710247349824</v>
+        <v>0.6867017280240421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3153710247349824</v>
+        <v>0.6867017280240421</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -868,34 +868,34 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E5" t="n">
-        <v>3742.4</v>
+        <v>645.6</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>416.92</v>
+        <v>239.11</v>
       </c>
       <c r="H5" t="n">
-        <v>3325.48</v>
+        <v>406.49</v>
       </c>
       <c r="I5" t="n">
-        <v>3325.48</v>
+        <v>406.49</v>
       </c>
       <c r="J5" t="n">
-        <v>187.12</v>
+        <v>32.28</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8885955536554083</v>
+        <v>0.6296313506815365</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8885955536554083</v>
+        <v>0.6296313506815365</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="O5" t="n">
         <v>0.8</v>
@@ -960,34 +960,34 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45807</v>
+        <v>45813</v>
       </c>
       <c r="E6" t="n">
-        <v>19735</v>
+        <v>17429</v>
       </c>
       <c r="F6" t="n">
-        <v>720</v>
+        <v>10128</v>
       </c>
       <c r="G6" t="n">
-        <v>16870.2</v>
+        <v>6674.96</v>
       </c>
       <c r="H6" t="n">
-        <v>2144.799999999999</v>
+        <v>626.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2144.799999999999</v>
+        <v>626.04</v>
       </c>
       <c r="J6" t="n">
-        <v>986.75</v>
+        <v>871.45</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1086800101342792</v>
+        <v>0.03591944460382122</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1086800101342792</v>
+        <v>0.03591944460382122</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>16870</v>
+        <v>6674</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -1052,34 +1052,34 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E7" t="n">
-        <v>26088.8</v>
+        <v>18318.4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11197.2</v>
+        <v>16106.2</v>
       </c>
       <c r="H7" t="n">
-        <v>14891.6</v>
+        <v>2212.200000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>14891.6</v>
+        <v>2212.200000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>1304.44</v>
+        <v>915.9200000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5708043298273588</v>
+        <v>0.120763822167875</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5708043298273588</v>
+        <v>0.120763822167875</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>11196</v>
+        <v>16105</v>
       </c>
       <c r="O7" t="n">
         <v>0.8</v>
@@ -1144,34 +1144,34 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E8" t="n">
-        <v>53981</v>
+        <v>38704</v>
       </c>
       <c r="F8" t="n">
-        <v>14119</v>
+        <v>10288</v>
       </c>
       <c r="G8" t="n">
-        <v>29560.61</v>
+        <v>28941.52</v>
       </c>
       <c r="H8" t="n">
-        <v>10301.39</v>
+        <v>-525.5200000000004</v>
       </c>
       <c r="I8" t="n">
-        <v>10301.39</v>
+        <v>525.5200000000004</v>
       </c>
       <c r="J8" t="n">
-        <v>2699.05</v>
+        <v>1935.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1908336266464126</v>
+        <v>-0.01357792476229848</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1908336266464126</v>
+        <v>0.01357792476229848</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>29528</v>
+        <v>28924</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1236,34 +1236,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E9" t="n">
-        <v>14577</v>
+        <v>10236</v>
       </c>
       <c r="F9" t="n">
-        <v>815</v>
+        <v>1319</v>
       </c>
       <c r="G9" t="n">
-        <v>14483.88</v>
+        <v>15162.96</v>
       </c>
       <c r="H9" t="n">
-        <v>-721.8799999999992</v>
+        <v>-6245.960000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>721.8799999999992</v>
+        <v>6245.960000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>728.85</v>
+        <v>511.8</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.04952184948892085</v>
+        <v>-0.6101953888237593</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04952184948892085</v>
+        <v>0.6101953888237593</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>14465</v>
+        <v>15152</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -1328,34 +1328,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45808</v>
+        <v>45814</v>
       </c>
       <c r="E10" t="n">
-        <v>9095</v>
+        <v>8018</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7529.92</v>
+        <v>12881.74</v>
       </c>
       <c r="H10" t="n">
-        <v>1565.08</v>
+        <v>-4863.74</v>
       </c>
       <c r="I10" t="n">
-        <v>1565.08</v>
+        <v>4863.74</v>
       </c>
       <c r="J10" t="n">
-        <v>454.75</v>
+        <v>400.9</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1720813633864761</v>
+        <v>-0.6066026440508855</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1720813633864761</v>
+        <v>0.6066026440508855</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7518</v>
+        <v>12868</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>

--- a/PDC_Sim_Input_For_Optim.xlsx
+++ b/PDC_Sim_Input_For_Optim.xlsx
@@ -604,22 +604,22 @@
         <v>32851</v>
       </c>
       <c r="G2" t="n">
-        <v>34669.94</v>
+        <v>35148.88</v>
       </c>
       <c r="H2" t="n">
-        <v>46326.06</v>
+        <v>45847.12</v>
       </c>
       <c r="I2" t="n">
-        <v>46326.06</v>
+        <v>45847.12</v>
       </c>
       <c r="J2" t="n">
         <v>5692.35</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4069150702258294</v>
+        <v>0.4027081960877318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4069150702258294</v>
+        <v>0.4027081960877318</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>34634</v>
+        <v>35111</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -696,22 +696,22 @@
         <v>506</v>
       </c>
       <c r="G3" t="n">
-        <v>22396.14</v>
+        <v>22849.94</v>
       </c>
       <c r="H3" t="n">
-        <v>14250.66</v>
+        <v>13796.86</v>
       </c>
       <c r="I3" t="n">
-        <v>14250.66</v>
+        <v>13796.86</v>
       </c>
       <c r="J3" t="n">
         <v>1857.64</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3835689369307294</v>
+        <v>0.3713545143300102</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3835689369307294</v>
+        <v>0.3713545143300102</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>22371</v>
+        <v>22824</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
@@ -972,22 +972,22 @@
         <v>10128</v>
       </c>
       <c r="G6" t="n">
-        <v>6674.96</v>
+        <v>7544.96</v>
       </c>
       <c r="H6" t="n">
-        <v>626.04</v>
+        <v>-243.96</v>
       </c>
       <c r="I6" t="n">
-        <v>626.04</v>
+        <v>243.96</v>
       </c>
       <c r="J6" t="n">
         <v>871.45</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03591944460382122</v>
+        <v>-0.01399736072063802</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03591944460382122</v>
+        <v>0.01399736072063802</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6674</v>
+        <v>7544</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
@@ -1064,22 +1064,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>16106.2</v>
+        <v>16946.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2212.200000000001</v>
+        <v>1372.200000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>2212.200000000001</v>
+        <v>1372.200000000001</v>
       </c>
       <c r="J7" t="n">
         <v>915.9200000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.120763822167875</v>
+        <v>0.07490828893353135</v>
       </c>
       <c r="L7" t="n">
-        <v>0.120763822167875</v>
+        <v>0.07490828893353135</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>16105</v>
+        <v>16945</v>
       </c>
       <c r="O7" t="n">
         <v>0.8</v>
@@ -1156,22 +1156,22 @@
         <v>10288</v>
       </c>
       <c r="G8" t="n">
-        <v>28941.52</v>
+        <v>28853.52</v>
       </c>
       <c r="H8" t="n">
-        <v>-525.5200000000004</v>
+        <v>-437.5200000000004</v>
       </c>
       <c r="I8" t="n">
-        <v>525.5200000000004</v>
+        <v>437.5200000000004</v>
       </c>
       <c r="J8" t="n">
         <v>1935.2</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01357792476229848</v>
+        <v>-0.01130425795783383</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01357792476229848</v>
+        <v>0.01130425795783383</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>28924</v>
+        <v>28836</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1248,22 +1248,22 @@
         <v>1319</v>
       </c>
       <c r="G9" t="n">
-        <v>15162.96</v>
+        <v>15120.96</v>
       </c>
       <c r="H9" t="n">
-        <v>-6245.960000000001</v>
+        <v>-6203.960000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>6245.960000000001</v>
+        <v>6203.960000000001</v>
       </c>
       <c r="J9" t="n">
         <v>511.8</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.6101953888237593</v>
+        <v>-0.6060922235248145</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6101953888237593</v>
+        <v>0.6060922235248145</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>15152</v>
+        <v>15110</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
@@ -1340,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12881.74</v>
+        <v>12958.74</v>
       </c>
       <c r="H10" t="n">
-        <v>-4863.74</v>
+        <v>-4940.74</v>
       </c>
       <c r="I10" t="n">
-        <v>4863.74</v>
+        <v>4940.74</v>
       </c>
       <c r="J10" t="n">
         <v>400.9</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.6066026440508855</v>
+        <v>-0.6162060364180594</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6066026440508855</v>
+        <v>0.6162060364180594</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>12868</v>
+        <v>12945</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
